--- a/Code/Results/Cases/Case_0_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9886250793888172</v>
+        <v>1.026388868250889</v>
       </c>
       <c r="D2">
-        <v>0.9974137158111676</v>
+        <v>1.027797155090833</v>
       </c>
       <c r="E2">
-        <v>0.9965167414046934</v>
+        <v>1.026606404435739</v>
       </c>
       <c r="F2">
-        <v>0.997182590593818</v>
+        <v>1.036174583677398</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039362249266538</v>
+        <v>1.031582048339116</v>
       </c>
       <c r="J2">
-        <v>1.011151418141268</v>
+        <v>1.031552584253658</v>
       </c>
       <c r="K2">
-        <v>1.008909199663818</v>
+        <v>1.030615837652987</v>
       </c>
       <c r="L2">
-        <v>1.008024817810466</v>
+        <v>1.029428559723848</v>
       </c>
       <c r="M2">
-        <v>1.008681316458813</v>
+        <v>1.038969079276475</v>
       </c>
       <c r="N2">
-        <v>1.007364067896417</v>
+        <v>1.014486322699843</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9940739407826858</v>
+        <v>1.02751292824</v>
       </c>
       <c r="D3">
-        <v>1.001935200363363</v>
+        <v>1.028776941328492</v>
       </c>
       <c r="E3">
-        <v>1.000927387023979</v>
+        <v>1.027565808511736</v>
       </c>
       <c r="F3">
-        <v>1.003168183634593</v>
+        <v>1.037471758884877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040655649854299</v>
+        <v>1.031774013593289</v>
       </c>
       <c r="J3">
-        <v>1.014727470245598</v>
+        <v>1.032315484495395</v>
       </c>
       <c r="K3">
-        <v>1.012543379679555</v>
+        <v>1.031402960026777</v>
       </c>
       <c r="L3">
-        <v>1.011548415496843</v>
+        <v>1.030195102367082</v>
       </c>
       <c r="M3">
-        <v>1.013760686827245</v>
+        <v>1.040074507691915</v>
       </c>
       <c r="N3">
-        <v>1.008591299663706</v>
+        <v>1.014744112155595</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9975147924826243</v>
+        <v>1.028240057962907</v>
       </c>
       <c r="D4">
-        <v>1.004796007371969</v>
+        <v>1.029411021598052</v>
       </c>
       <c r="E4">
-        <v>1.003719024739971</v>
+        <v>1.028186774746934</v>
       </c>
       <c r="F4">
-        <v>1.006949627293539</v>
+        <v>1.038311015686693</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041459997138129</v>
+        <v>1.031896632981637</v>
       </c>
       <c r="J4">
-        <v>1.016982284474736</v>
+        <v>1.032808405131871</v>
       </c>
       <c r="K4">
-        <v>1.01483689140316</v>
+        <v>1.031911764147895</v>
       </c>
       <c r="L4">
-        <v>1.013772770691519</v>
+        <v>1.030690660207686</v>
       </c>
       <c r="M4">
-        <v>1.016964893861718</v>
+        <v>1.040789150077184</v>
       </c>
       <c r="N4">
-        <v>1.009364534390919</v>
+        <v>1.014910539157136</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9989418709357324</v>
+        <v>1.02854569373961</v>
       </c>
       <c r="D5">
-        <v>1.005983795297452</v>
+        <v>1.029677611668997</v>
       </c>
       <c r="E5">
-        <v>1.004878318495257</v>
+        <v>1.028447869441967</v>
       </c>
       <c r="F5">
-        <v>1.00851838448877</v>
+        <v>1.038663816780895</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041790572438253</v>
+        <v>1.031947800407854</v>
       </c>
       <c r="J5">
-        <v>1.017916600445777</v>
+        <v>1.033015455498957</v>
       </c>
       <c r="K5">
-        <v>1.015787731702325</v>
+        <v>1.032125542181326</v>
       </c>
       <c r="L5">
-        <v>1.014695088947688</v>
+        <v>1.0308988862448</v>
       </c>
       <c r="M5">
-        <v>1.018293026724596</v>
+        <v>1.041089433280557</v>
       </c>
       <c r="N5">
-        <v>1.009684789993997</v>
+        <v>1.014980414181722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9991803672466065</v>
+        <v>1.028597008461709</v>
       </c>
       <c r="D6">
-        <v>1.006182374554839</v>
+        <v>1.029722374660561</v>
       </c>
       <c r="E6">
-        <v>1.00507214701123</v>
+        <v>1.028491710774749</v>
       </c>
       <c r="F6">
-        <v>1.008780583740877</v>
+        <v>1.03872305237847</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04184563971469</v>
+        <v>1.031956369259121</v>
       </c>
       <c r="J6">
-        <v>1.018072693535604</v>
+        <v>1.033050210009942</v>
       </c>
       <c r="K6">
-        <v>1.015946614202662</v>
+        <v>1.032161429242001</v>
       </c>
       <c r="L6">
-        <v>1.014849214173038</v>
+        <v>1.030933842080716</v>
       </c>
       <c r="M6">
-        <v>1.018514940038077</v>
+        <v>1.041139843259635</v>
       </c>
       <c r="N6">
-        <v>1.009738285238217</v>
+        <v>1.014992141178734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9975339365033898</v>
+        <v>1.028244142076278</v>
       </c>
       <c r="D7">
-        <v>1.004811936361214</v>
+        <v>1.02941458369778</v>
       </c>
       <c r="E7">
-        <v>1.003734570724861</v>
+        <v>1.028190263347494</v>
       </c>
       <c r="F7">
-        <v>1.006970670223608</v>
+        <v>1.038315729917932</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041464443767911</v>
+        <v>1.031897318183275</v>
       </c>
       <c r="J7">
-        <v>1.016994821619785</v>
+        <v>1.03281117242996</v>
       </c>
       <c r="K7">
-        <v>1.014849648346314</v>
+        <v>1.03191462114402</v>
       </c>
       <c r="L7">
-        <v>1.013785144384125</v>
+        <v>1.030693442952064</v>
       </c>
       <c r="M7">
-        <v>1.016982713702721</v>
+        <v>1.040793163073037</v>
       </c>
       <c r="N7">
-        <v>1.009368832336755</v>
+        <v>1.014911473187649</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9904846773063302</v>
+        <v>1.026768794291647</v>
       </c>
       <c r="D8">
-        <v>0.9989556083421336</v>
+        <v>1.02812825943977</v>
       </c>
       <c r="E8">
-        <v>0.9980206309373776</v>
+        <v>1.026930605038508</v>
       </c>
       <c r="F8">
-        <v>0.9992250313199413</v>
+        <v>1.03661299251281</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039806243810892</v>
+        <v>1.031647254189144</v>
       </c>
       <c r="J8">
-        <v>1.012372546120903</v>
+        <v>1.031810560782295</v>
       </c>
       <c r="K8">
-        <v>1.010149745185825</v>
+        <v>1.030881956616558</v>
       </c>
       <c r="L8">
-        <v>1.009227480959022</v>
+        <v>1.029687709102597</v>
       </c>
       <c r="M8">
-        <v>1.010415510291555</v>
+        <v>1.039342798266077</v>
       </c>
       <c r="N8">
-        <v>1.007783251104744</v>
+        <v>1.014573522592237</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9773701237918303</v>
+        <v>1.024167360766162</v>
       </c>
       <c r="D9">
-        <v>0.9881080182030758</v>
+        <v>1.025862283766746</v>
       </c>
       <c r="E9">
-        <v>0.9874447550901112</v>
+        <v>1.024712193538241</v>
       </c>
       <c r="F9">
-        <v>0.9848270694981125</v>
+        <v>1.03361167717236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036623937402047</v>
+        <v>1.031194390309051</v>
       </c>
       <c r="J9">
-        <v>1.003748113089783</v>
+        <v>1.03004176395247</v>
       </c>
       <c r="K9">
-        <v>1.001397026856105</v>
+        <v>1.029058290641968</v>
       </c>
       <c r="L9">
-        <v>1.000744870716961</v>
+        <v>1.027912038683891</v>
       </c>
       <c r="M9">
-        <v>0.9981712091594137</v>
+        <v>1.036782065700433</v>
       </c>
       <c r="N9">
-        <v>1.004820578246686</v>
+        <v>1.013975095750661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9680966684802054</v>
+        <v>1.022431858898439</v>
       </c>
       <c r="D10">
-        <v>0.9804742979328431</v>
+        <v>1.024352066678945</v>
       </c>
       <c r="E10">
-        <v>0.9800081151254176</v>
+        <v>1.023234078498005</v>
       </c>
       <c r="F10">
-        <v>0.9746525564672731</v>
+        <v>1.031610082553061</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03431075265809</v>
+        <v>1.030884259160341</v>
       </c>
       <c r="J10">
-        <v>0.9976358518478976</v>
+        <v>1.028858769936395</v>
       </c>
       <c r="K10">
-        <v>0.9952052770851194</v>
+        <v>1.027839804763226</v>
       </c>
       <c r="L10">
-        <v>0.9947479610202886</v>
+        <v>1.026725916973165</v>
       </c>
       <c r="M10">
-        <v>0.9894950615991684</v>
+        <v>1.035071439458959</v>
       </c>
       <c r="N10">
-        <v>1.002718575814588</v>
+        <v>1.013574177834437</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9639392024077863</v>
+        <v>1.021680060718178</v>
       </c>
       <c r="D11">
-        <v>0.9770617585892994</v>
+        <v>1.023698220762973</v>
       </c>
       <c r="E11">
-        <v>0.976685184909074</v>
+        <v>1.022594227525481</v>
       </c>
       <c r="F11">
-        <v>0.9700921976368999</v>
+        <v>1.030743170077919</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03325951062125</v>
+        <v>1.030748016961818</v>
       </c>
       <c r="J11">
-        <v>0.9948930982187951</v>
+        <v>1.028345611080178</v>
       </c>
       <c r="K11">
-        <v>0.9924296207712019</v>
+        <v>1.027311536295867</v>
       </c>
       <c r="L11">
-        <v>0.9920605981024792</v>
+        <v>1.026211750504537</v>
       </c>
       <c r="M11">
-        <v>0.9856010650605946</v>
+        <v>1.034329871605453</v>
       </c>
       <c r="N11">
-        <v>1.001774925522474</v>
+        <v>1.01340010759205</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9623720720881613</v>
+        <v>1.021400760417644</v>
       </c>
       <c r="D12">
-        <v>0.9757769962800845</v>
+        <v>1.023455365709233</v>
       </c>
       <c r="E12">
-        <v>0.9754343960376389</v>
+        <v>1.022356585133458</v>
       </c>
       <c r="F12">
-        <v>0.9683733150167576</v>
+        <v>1.03042112615726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032861185237921</v>
+        <v>1.030697116846028</v>
       </c>
       <c r="J12">
-        <v>0.9938589277944792</v>
+        <v>1.02815486274507</v>
       </c>
       <c r="K12">
-        <v>0.9913834651747735</v>
+        <v>1.027115214500114</v>
       </c>
       <c r="L12">
-        <v>0.9910478686707441</v>
+        <v>1.026020680133337</v>
       </c>
       <c r="M12">
-        <v>0.9841325952316269</v>
+        <v>1.03405428955744</v>
       </c>
       <c r="N12">
-        <v>1.001419065505747</v>
+        <v>1.013335379317686</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9627092875678162</v>
+        <v>1.021460673524845</v>
       </c>
       <c r="D13">
-        <v>0.9760533790395071</v>
+        <v>1.023507458392931</v>
       </c>
       <c r="E13">
-        <v>0.9757034594149968</v>
+        <v>1.022407559033864</v>
       </c>
       <c r="F13">
-        <v>0.9687431801524782</v>
+        <v>1.03049020725406</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032946989201502</v>
+        <v>1.030708048387713</v>
       </c>
       <c r="J13">
-        <v>0.9940814735188949</v>
+        <v>1.028195785182334</v>
       </c>
       <c r="K13">
-        <v>0.9916085709141446</v>
+        <v>1.027157330701195</v>
       </c>
       <c r="L13">
-        <v>0.9912657751841141</v>
+        <v>1.026061669282267</v>
       </c>
       <c r="M13">
-        <v>0.9844486104875939</v>
+        <v>1.034113408793609</v>
       </c>
       <c r="N13">
-        <v>1.001495646047369</v>
+        <v>1.013349266961016</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9638101386656207</v>
+        <v>1.021656974677545</v>
       </c>
       <c r="D14">
-        <v>0.9769559172209703</v>
+        <v>1.023678146039491</v>
       </c>
       <c r="E14">
-        <v>0.9765821374608274</v>
+        <v>1.022574583389539</v>
       </c>
       <c r="F14">
-        <v>0.9699506340012665</v>
+        <v>1.030716550536543</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033226747404767</v>
+        <v>1.030743815535015</v>
       </c>
       <c r="J14">
-        <v>0.9948079331267815</v>
+        <v>1.028329846589385</v>
       </c>
       <c r="K14">
-        <v>0.9923434601061428</v>
+        <v>1.027295310306683</v>
       </c>
       <c r="L14">
-        <v>0.9919771873551341</v>
+        <v>1.026195958327684</v>
       </c>
       <c r="M14">
-        <v>0.9854801399590714</v>
+        <v>1.034307094587058</v>
       </c>
       <c r="N14">
-        <v>1.001745621028325</v>
+        <v>1.01339475857891</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9644853317033243</v>
+        <v>1.021777915753552</v>
       </c>
       <c r="D15">
-        <v>0.9775096877521596</v>
+        <v>1.023783313955374</v>
       </c>
       <c r="E15">
-        <v>0.9771212997027042</v>
+        <v>1.02267749613145</v>
       </c>
       <c r="F15">
-        <v>0.9706912242745708</v>
+        <v>1.030856003514442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03339806345537</v>
+        <v>1.030765813930424</v>
       </c>
       <c r="J15">
-        <v>0.9952534596468559</v>
+        <v>1.028412427896218</v>
       </c>
       <c r="K15">
-        <v>0.9927942119649202</v>
+        <v>1.027380310904485</v>
       </c>
       <c r="L15">
-        <v>0.9924135590047615</v>
+        <v>1.026278686816242</v>
       </c>
       <c r="M15">
-        <v>0.9861127293448816</v>
+        <v>1.034426413407643</v>
       </c>
       <c r="N15">
-        <v>1.001898920420752</v>
+        <v>1.013422778073563</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.968369466832031</v>
+        <v>1.022481746494412</v>
       </c>
       <c r="D16">
-        <v>0.9806984287091342</v>
+        <v>1.024395462066241</v>
       </c>
       <c r="E16">
-        <v>0.9802263927350289</v>
+        <v>1.023276547088534</v>
       </c>
       <c r="F16">
-        <v>0.9749518097566736</v>
+        <v>1.031667612053047</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034379442037498</v>
+        <v>1.030893259931948</v>
       </c>
       <c r="J16">
-        <v>0.9978157753777661</v>
+        <v>1.028892807254793</v>
       </c>
       <c r="K16">
-        <v>0.9953874169081994</v>
+        <v>1.02787485031113</v>
       </c>
       <c r="L16">
-        <v>0.9949243271663064</v>
+        <v>1.026760028480708</v>
       </c>
       <c r="M16">
-        <v>0.9897504820248237</v>
+        <v>1.035120636663893</v>
       </c>
       <c r="N16">
-        <v>1.002780471144324</v>
+        <v>1.013585720380592</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9707668301908199</v>
+        <v>1.022923155514632</v>
       </c>
       <c r="D17">
-        <v>0.9826692224446079</v>
+        <v>1.024779469416634</v>
       </c>
       <c r="E17">
-        <v>0.9821458916877301</v>
+        <v>1.023652364331996</v>
       </c>
       <c r="F17">
-        <v>0.9775817765287805</v>
+        <v>1.032176654872238</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03498148473901</v>
+        <v>1.030972680311572</v>
       </c>
       <c r="J17">
-        <v>0.9993966741941039</v>
+        <v>1.029193891045251</v>
       </c>
       <c r="K17">
-        <v>0.9969881033556061</v>
+        <v>1.028184885609555</v>
       </c>
       <c r="L17">
-        <v>0.9964743815566376</v>
+        <v>1.027061808826315</v>
       </c>
       <c r="M17">
-        <v>0.9919946377540206</v>
+        <v>1.035555873995378</v>
       </c>
       <c r="N17">
-        <v>1.003324268535462</v>
+        <v>1.013687803773039</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9721515814412937</v>
+        <v>1.023180591708506</v>
       </c>
       <c r="D18">
-        <v>0.9838085003829951</v>
+        <v>1.025003462956444</v>
       </c>
       <c r="E18">
-        <v>0.9832556590405414</v>
+        <v>1.02387158983569</v>
       </c>
       <c r="F18">
-        <v>0.9791009869958511</v>
+        <v>1.032473550969264</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035327887058309</v>
+        <v>1.031018816419241</v>
       </c>
       <c r="J18">
-        <v>1.000309581794006</v>
+        <v>1.029369419935573</v>
       </c>
       <c r="K18">
-        <v>0.9979126984183279</v>
+        <v>1.02836566070945</v>
       </c>
       <c r="L18">
-        <v>0.9973698197208039</v>
+        <v>1.027237777447056</v>
       </c>
       <c r="M18">
-        <v>0.9932904867316383</v>
+        <v>1.035809658182144</v>
       </c>
       <c r="N18">
-        <v>1.003638250014385</v>
+        <v>1.013747301940882</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9726214847986782</v>
+        <v>1.023268365725103</v>
       </c>
       <c r="D19">
-        <v>0.9841952575990663</v>
+        <v>1.025079840439235</v>
       </c>
       <c r="E19">
-        <v>0.98363242190196</v>
+        <v>1.023946343083977</v>
       </c>
       <c r="F19">
-        <v>0.9796165368493293</v>
+        <v>1.032574781559872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035445205428441</v>
+        <v>1.031034515681122</v>
       </c>
       <c r="J19">
-        <v>1.000619326011732</v>
+        <v>1.029429255818907</v>
       </c>
       <c r="K19">
-        <v>0.9982264522268591</v>
+        <v>1.028427289643888</v>
       </c>
       <c r="L19">
-        <v>0.9976736943864063</v>
+        <v>1.027297768934859</v>
       </c>
       <c r="M19">
-        <v>0.9937301528757714</v>
+        <v>1.035896178124788</v>
       </c>
       <c r="N19">
-        <v>1.003744774914964</v>
+        <v>1.013767581592895</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9705110320822563</v>
+        <v>1.022875799642309</v>
       </c>
       <c r="D20">
-        <v>0.9824588430748711</v>
+        <v>1.024738268183423</v>
       </c>
       <c r="E20">
-        <v>0.9819409731559996</v>
+        <v>1.023612040876173</v>
       </c>
       <c r="F20">
-        <v>0.9773011491781503</v>
+        <v>1.032122041479416</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034917386223594</v>
+        <v>1.030964178750922</v>
       </c>
       <c r="J20">
-        <v>0.9992280173118807</v>
+        <v>1.029161596732069</v>
       </c>
       <c r="K20">
-        <v>0.9968173083222802</v>
+        <v>1.028151628303457</v>
       </c>
       <c r="L20">
-        <v>0.9963089797023968</v>
+        <v>1.02702943631928</v>
       </c>
       <c r="M20">
-        <v>0.991755229183621</v>
+        <v>1.035509185685911</v>
       </c>
       <c r="N20">
-        <v>1.003266258072596</v>
+        <v>1.013676855883083</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9634866095729731</v>
+        <v>1.021599170246944</v>
       </c>
       <c r="D21">
-        <v>0.9766906262212015</v>
+        <v>1.023627882445099</v>
       </c>
       <c r="E21">
-        <v>0.9763238532676638</v>
+        <v>1.022525398146897</v>
       </c>
       <c r="F21">
-        <v>0.9695957726380435</v>
+        <v>1.03064989904204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03314458554938</v>
+        <v>1.030733291110909</v>
       </c>
       <c r="J21">
-        <v>0.9945944417913576</v>
+        <v>1.028290372670849</v>
       </c>
       <c r="K21">
-        <v>0.9921274798694831</v>
+        <v>1.027254681501375</v>
       </c>
       <c r="L21">
-        <v>0.9917681027806194</v>
+        <v>1.026156415932162</v>
       </c>
       <c r="M21">
-        <v>0.9851770017889943</v>
+        <v>1.034250062574952</v>
       </c>
       <c r="N21">
-        <v>1.00167215991228</v>
+        <v>1.013381364388345</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9589369354220422</v>
+        <v>1.02079621841177</v>
       </c>
       <c r="D22">
-        <v>0.9729638207591136</v>
+        <v>1.022929810389239</v>
       </c>
       <c r="E22">
-        <v>0.972696059325824</v>
+        <v>1.021842337150197</v>
       </c>
       <c r="F22">
-        <v>0.9646056968445946</v>
+        <v>1.029724106464692</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031984331191347</v>
+        <v>1.03058642353372</v>
       </c>
       <c r="J22">
-        <v>0.99159155146329</v>
+        <v>1.027741799000117</v>
       </c>
       <c r="K22">
-        <v>0.9890905936543515</v>
+        <v>1.026690160145991</v>
       </c>
       <c r="L22">
-        <v>0.9888285365505649</v>
+        <v>1.025607015134913</v>
       </c>
       <c r="M22">
-        <v>0.9809125132452973</v>
+        <v>1.033457644442417</v>
       </c>
       <c r="N22">
-        <v>1.00063877542065</v>
+        <v>1.013195167221052</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9613619734388488</v>
+        <v>1.02122190590094</v>
       </c>
       <c r="D23">
-        <v>0.9749493551633693</v>
+        <v>1.023299865081485</v>
       </c>
       <c r="E23">
-        <v>0.9746287087769988</v>
+        <v>1.022204426301726</v>
       </c>
       <c r="F23">
-        <v>0.9672654304325556</v>
+        <v>1.030214906303414</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032603869654065</v>
+        <v>1.030664441970395</v>
       </c>
       <c r="J23">
-        <v>0.9931922727704461</v>
+        <v>1.02803268445577</v>
       </c>
       <c r="K23">
-        <v>0.990709203555913</v>
+        <v>1.026989478399083</v>
       </c>
       <c r="L23">
-        <v>0.9903951931033601</v>
+        <v>1.025898310362415</v>
       </c>
       <c r="M23">
-        <v>0.9831859038483657</v>
+        <v>1.033877792827202</v>
       </c>
       <c r="N23">
-        <v>1.001189655223424</v>
+        <v>1.01329391278801</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.970626658121814</v>
+        <v>1.022897197815481</v>
       </c>
       <c r="D24">
-        <v>0.982553936059019</v>
+        <v>1.024756885220512</v>
       </c>
       <c r="E24">
-        <v>0.9820335973627008</v>
+        <v>1.023630261255307</v>
       </c>
       <c r="F24">
-        <v>0.9774279982224764</v>
+        <v>1.03214671898182</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034946364261297</v>
+        <v>1.030968020822423</v>
       </c>
       <c r="J24">
-        <v>0.9993042544699616</v>
+        <v>1.029176189414297</v>
       </c>
       <c r="K24">
-        <v>0.9968945111693119</v>
+        <v>1.028166656043666</v>
       </c>
       <c r="L24">
-        <v>0.9963837444452129</v>
+        <v>1.027044064230649</v>
       </c>
       <c r="M24">
-        <v>0.9918634480764436</v>
+        <v>1.035530282377232</v>
       </c>
       <c r="N24">
-        <v>1.003292480388851</v>
+        <v>1.013681802903338</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9808489720072345</v>
+        <v>1.024840101450961</v>
       </c>
       <c r="D25">
-        <v>0.9909795529141208</v>
+        <v>1.026448014050105</v>
       </c>
       <c r="E25">
-        <v>0.9902433895261182</v>
+        <v>1.025285558566381</v>
       </c>
       <c r="F25">
-        <v>0.9886451177705657</v>
+        <v>1.03438770610058</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037479115918197</v>
+        <v>1.031312915164177</v>
       </c>
       <c r="J25">
-        <v>1.006038491820111</v>
+        <v>1.030499706703261</v>
       </c>
       <c r="K25">
-        <v>1.003719532525524</v>
+        <v>1.029530226958876</v>
       </c>
       <c r="L25">
-        <v>1.002995076338154</v>
+        <v>1.028371502575133</v>
       </c>
       <c r="M25">
-        <v>1.001422298826246</v>
+        <v>1.03744468044723</v>
       </c>
       <c r="N25">
-        <v>1.005607808084396</v>
+        <v>1.014130149553705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026388868250889</v>
+        <v>0.9886250793888163</v>
       </c>
       <c r="D2">
-        <v>1.027797155090833</v>
+        <v>0.9974137158111671</v>
       </c>
       <c r="E2">
-        <v>1.026606404435739</v>
+        <v>0.9965167414046927</v>
       </c>
       <c r="F2">
-        <v>1.036174583677398</v>
+        <v>0.9971825905938174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031582048339116</v>
+        <v>1.039362249266537</v>
       </c>
       <c r="J2">
-        <v>1.031552584253658</v>
+        <v>1.011151418141268</v>
       </c>
       <c r="K2">
-        <v>1.030615837652987</v>
+        <v>1.008909199663817</v>
       </c>
       <c r="L2">
-        <v>1.029428559723848</v>
+        <v>1.008024817810465</v>
       </c>
       <c r="M2">
-        <v>1.038969079276475</v>
+        <v>1.008681316458812</v>
       </c>
       <c r="N2">
-        <v>1.014486322699843</v>
+        <v>1.007364067896417</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02751292824</v>
+        <v>0.9940739407826854</v>
       </c>
       <c r="D3">
-        <v>1.028776941328492</v>
+        <v>1.001935200363363</v>
       </c>
       <c r="E3">
-        <v>1.027565808511736</v>
+        <v>1.000927387023978</v>
       </c>
       <c r="F3">
-        <v>1.037471758884877</v>
+        <v>1.003168183634592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031774013593289</v>
+        <v>1.040655649854299</v>
       </c>
       <c r="J3">
-        <v>1.032315484495395</v>
+        <v>1.014727470245598</v>
       </c>
       <c r="K3">
-        <v>1.031402960026777</v>
+        <v>1.012543379679554</v>
       </c>
       <c r="L3">
-        <v>1.030195102367082</v>
+        <v>1.011548415496842</v>
       </c>
       <c r="M3">
-        <v>1.040074507691915</v>
+        <v>1.013760686827244</v>
       </c>
       <c r="N3">
-        <v>1.014744112155595</v>
+        <v>1.008591299663706</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028240057962907</v>
+        <v>0.9975147924826249</v>
       </c>
       <c r="D4">
-        <v>1.029411021598052</v>
+        <v>1.004796007371969</v>
       </c>
       <c r="E4">
-        <v>1.028186774746934</v>
+        <v>1.003719024739971</v>
       </c>
       <c r="F4">
-        <v>1.038311015686693</v>
+        <v>1.006949627293539</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031896632981637</v>
+        <v>1.041459997138129</v>
       </c>
       <c r="J4">
-        <v>1.032808405131871</v>
+        <v>1.016982284474736</v>
       </c>
       <c r="K4">
-        <v>1.031911764147895</v>
+        <v>1.01483689140316</v>
       </c>
       <c r="L4">
-        <v>1.030690660207686</v>
+        <v>1.013772770691519</v>
       </c>
       <c r="M4">
-        <v>1.040789150077184</v>
+        <v>1.016964893861718</v>
       </c>
       <c r="N4">
-        <v>1.014910539157136</v>
+        <v>1.009364534390919</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02854569373961</v>
+        <v>0.9989418709357323</v>
       </c>
       <c r="D5">
-        <v>1.029677611668997</v>
+        <v>1.005983795297452</v>
       </c>
       <c r="E5">
-        <v>1.028447869441967</v>
+        <v>1.004878318495256</v>
       </c>
       <c r="F5">
-        <v>1.038663816780895</v>
+        <v>1.00851838448877</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031947800407854</v>
+        <v>1.041790572438253</v>
       </c>
       <c r="J5">
-        <v>1.033015455498957</v>
+        <v>1.017916600445776</v>
       </c>
       <c r="K5">
-        <v>1.032125542181326</v>
+        <v>1.015787731702325</v>
       </c>
       <c r="L5">
-        <v>1.0308988862448</v>
+        <v>1.014695088947687</v>
       </c>
       <c r="M5">
-        <v>1.041089433280557</v>
+        <v>1.018293026724596</v>
       </c>
       <c r="N5">
-        <v>1.014980414181722</v>
+        <v>1.009684789993997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028597008461709</v>
+        <v>0.9991803672466073</v>
       </c>
       <c r="D6">
-        <v>1.029722374660561</v>
+        <v>1.006182374554841</v>
       </c>
       <c r="E6">
-        <v>1.028491710774749</v>
+        <v>1.00507214701123</v>
       </c>
       <c r="F6">
-        <v>1.03872305237847</v>
+        <v>1.008780583740879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031956369259121</v>
+        <v>1.041845639714691</v>
       </c>
       <c r="J6">
-        <v>1.033050210009942</v>
+        <v>1.018072693535605</v>
       </c>
       <c r="K6">
-        <v>1.032161429242001</v>
+        <v>1.015946614202663</v>
       </c>
       <c r="L6">
-        <v>1.030933842080716</v>
+        <v>1.014849214173039</v>
       </c>
       <c r="M6">
-        <v>1.041139843259635</v>
+        <v>1.018514940038078</v>
       </c>
       <c r="N6">
-        <v>1.014992141178734</v>
+        <v>1.009738285238217</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028244142076278</v>
+        <v>0.9975339365033893</v>
       </c>
       <c r="D7">
-        <v>1.02941458369778</v>
+        <v>1.004811936361214</v>
       </c>
       <c r="E7">
-        <v>1.028190263347494</v>
+        <v>1.00373457072486</v>
       </c>
       <c r="F7">
-        <v>1.038315729917932</v>
+        <v>1.006970670223607</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031897318183275</v>
+        <v>1.041464443767911</v>
       </c>
       <c r="J7">
-        <v>1.03281117242996</v>
+        <v>1.016994821619784</v>
       </c>
       <c r="K7">
-        <v>1.03191462114402</v>
+        <v>1.014849648346314</v>
       </c>
       <c r="L7">
-        <v>1.030693442952064</v>
+        <v>1.013785144384125</v>
       </c>
       <c r="M7">
-        <v>1.040793163073037</v>
+        <v>1.01698271370272</v>
       </c>
       <c r="N7">
-        <v>1.014911473187649</v>
+        <v>1.009368832336755</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026768794291647</v>
+        <v>0.9904846773063292</v>
       </c>
       <c r="D8">
-        <v>1.02812825943977</v>
+        <v>0.9989556083421324</v>
       </c>
       <c r="E8">
-        <v>1.026930605038508</v>
+        <v>0.9980206309373765</v>
       </c>
       <c r="F8">
-        <v>1.03661299251281</v>
+        <v>0.9992250313199403</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031647254189144</v>
+        <v>1.039806243810892</v>
       </c>
       <c r="J8">
-        <v>1.031810560782295</v>
+        <v>1.012372546120902</v>
       </c>
       <c r="K8">
-        <v>1.030881956616558</v>
+        <v>1.010149745185824</v>
       </c>
       <c r="L8">
-        <v>1.029687709102597</v>
+        <v>1.009227480959021</v>
       </c>
       <c r="M8">
-        <v>1.039342798266077</v>
+        <v>1.010415510291554</v>
       </c>
       <c r="N8">
-        <v>1.014573522592237</v>
+        <v>1.007783251104744</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024167360766162</v>
+        <v>0.9773701237918296</v>
       </c>
       <c r="D9">
-        <v>1.025862283766746</v>
+        <v>0.9881080182030749</v>
       </c>
       <c r="E9">
-        <v>1.024712193538241</v>
+        <v>0.9874447550901106</v>
       </c>
       <c r="F9">
-        <v>1.03361167717236</v>
+        <v>0.9848270694981117</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031194390309051</v>
+        <v>1.036623937402047</v>
       </c>
       <c r="J9">
-        <v>1.03004176395247</v>
+        <v>1.003748113089782</v>
       </c>
       <c r="K9">
-        <v>1.029058290641968</v>
+        <v>1.001397026856104</v>
       </c>
       <c r="L9">
-        <v>1.027912038683891</v>
+        <v>1.00074487071696</v>
       </c>
       <c r="M9">
-        <v>1.036782065700433</v>
+        <v>0.9981712091594132</v>
       </c>
       <c r="N9">
-        <v>1.013975095750661</v>
+        <v>1.004820578246686</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022431858898439</v>
+        <v>0.968096668480206</v>
       </c>
       <c r="D10">
-        <v>1.024352066678945</v>
+        <v>0.9804742979328438</v>
       </c>
       <c r="E10">
-        <v>1.023234078498005</v>
+        <v>0.9800081151254179</v>
       </c>
       <c r="F10">
-        <v>1.031610082553061</v>
+        <v>0.974652556467274</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030884259160341</v>
+        <v>1.034310752658091</v>
       </c>
       <c r="J10">
-        <v>1.028858769936395</v>
+        <v>0.9976358518478982</v>
       </c>
       <c r="K10">
-        <v>1.027839804763226</v>
+        <v>0.99520527708512</v>
       </c>
       <c r="L10">
-        <v>1.026725916973165</v>
+        <v>0.9947479610202887</v>
       </c>
       <c r="M10">
-        <v>1.035071439458959</v>
+        <v>0.9894950615991691</v>
       </c>
       <c r="N10">
-        <v>1.013574177834437</v>
+        <v>1.002718575814588</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021680060718178</v>
+        <v>0.9639392024077854</v>
       </c>
       <c r="D11">
-        <v>1.023698220762973</v>
+        <v>0.9770617585892984</v>
       </c>
       <c r="E11">
-        <v>1.022594227525481</v>
+        <v>0.9766851849090729</v>
       </c>
       <c r="F11">
-        <v>1.030743170077919</v>
+        <v>0.9700921976368988</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030748016961818</v>
+        <v>1.03325951062125</v>
       </c>
       <c r="J11">
-        <v>1.028345611080178</v>
+        <v>0.9948930982187938</v>
       </c>
       <c r="K11">
-        <v>1.027311536295867</v>
+        <v>0.9924296207712008</v>
       </c>
       <c r="L11">
-        <v>1.026211750504537</v>
+        <v>0.9920605981024779</v>
       </c>
       <c r="M11">
-        <v>1.034329871605453</v>
+        <v>0.9856010650605938</v>
       </c>
       <c r="N11">
-        <v>1.01340010759205</v>
+        <v>1.001774925522474</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021400760417644</v>
+        <v>0.9623720720881627</v>
       </c>
       <c r="D12">
-        <v>1.023455365709233</v>
+        <v>0.975776996280086</v>
       </c>
       <c r="E12">
-        <v>1.022356585133458</v>
+        <v>0.97543439603764</v>
       </c>
       <c r="F12">
-        <v>1.03042112615726</v>
+        <v>0.9683733150167588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030697116846028</v>
+        <v>1.032861185237922</v>
       </c>
       <c r="J12">
-        <v>1.02815486274507</v>
+        <v>0.9938589277944804</v>
       </c>
       <c r="K12">
-        <v>1.027115214500114</v>
+        <v>0.9913834651747748</v>
       </c>
       <c r="L12">
-        <v>1.026020680133337</v>
+        <v>0.9910478686707451</v>
       </c>
       <c r="M12">
-        <v>1.03405428955744</v>
+        <v>0.9841325952316283</v>
       </c>
       <c r="N12">
-        <v>1.013335379317686</v>
+        <v>1.001419065505748</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021460673524845</v>
+        <v>0.9627092875678158</v>
       </c>
       <c r="D13">
-        <v>1.023507458392931</v>
+        <v>0.9760533790395066</v>
       </c>
       <c r="E13">
-        <v>1.022407559033864</v>
+        <v>0.9757034594149967</v>
       </c>
       <c r="F13">
-        <v>1.03049020725406</v>
+        <v>0.9687431801524782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030708048387713</v>
+        <v>1.032946989201501</v>
       </c>
       <c r="J13">
-        <v>1.028195785182334</v>
+        <v>0.9940814735188945</v>
       </c>
       <c r="K13">
-        <v>1.027157330701195</v>
+        <v>0.9916085709141444</v>
       </c>
       <c r="L13">
-        <v>1.026061669282267</v>
+        <v>0.991265775184114</v>
       </c>
       <c r="M13">
-        <v>1.034113408793609</v>
+        <v>0.9844486104875939</v>
       </c>
       <c r="N13">
-        <v>1.013349266961016</v>
+        <v>1.001495646047368</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021656974677545</v>
+        <v>0.9638101386656205</v>
       </c>
       <c r="D14">
-        <v>1.023678146039491</v>
+        <v>0.97695591722097</v>
       </c>
       <c r="E14">
-        <v>1.022574583389539</v>
+        <v>0.9765821374608271</v>
       </c>
       <c r="F14">
-        <v>1.030716550536543</v>
+        <v>0.9699506340012665</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030743815535015</v>
+        <v>1.033226747404766</v>
       </c>
       <c r="J14">
-        <v>1.028329846589385</v>
+        <v>0.9948079331267813</v>
       </c>
       <c r="K14">
-        <v>1.027295310306683</v>
+        <v>0.9923434601061426</v>
       </c>
       <c r="L14">
-        <v>1.026195958327684</v>
+        <v>0.9919771873551338</v>
       </c>
       <c r="M14">
-        <v>1.034307094587058</v>
+        <v>0.9854801399590714</v>
       </c>
       <c r="N14">
-        <v>1.01339475857891</v>
+        <v>1.001745621028325</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021777915753552</v>
+        <v>0.9644853317033236</v>
       </c>
       <c r="D15">
-        <v>1.023783313955374</v>
+        <v>0.9775096877521592</v>
       </c>
       <c r="E15">
-        <v>1.02267749613145</v>
+        <v>0.9771212997027034</v>
       </c>
       <c r="F15">
-        <v>1.030856003514442</v>
+        <v>0.9706912242745707</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030765813930424</v>
+        <v>1.03339806345537</v>
       </c>
       <c r="J15">
-        <v>1.028412427896218</v>
+        <v>0.9952534596468553</v>
       </c>
       <c r="K15">
-        <v>1.027380310904485</v>
+        <v>0.9927942119649199</v>
       </c>
       <c r="L15">
-        <v>1.026278686816242</v>
+        <v>0.9924135590047608</v>
       </c>
       <c r="M15">
-        <v>1.034426413407643</v>
+        <v>0.9861127293448816</v>
       </c>
       <c r="N15">
-        <v>1.013422778073563</v>
+        <v>1.001898920420752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022481746494412</v>
+        <v>0.9683694668320307</v>
       </c>
       <c r="D16">
-        <v>1.024395462066241</v>
+        <v>0.9806984287091344</v>
       </c>
       <c r="E16">
-        <v>1.023276547088534</v>
+        <v>0.9802263927350288</v>
       </c>
       <c r="F16">
-        <v>1.031667612053047</v>
+        <v>0.9749518097566736</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030893259931948</v>
+        <v>1.034379442037498</v>
       </c>
       <c r="J16">
-        <v>1.028892807254793</v>
+        <v>0.997815775377766</v>
       </c>
       <c r="K16">
-        <v>1.02787485031113</v>
+        <v>0.9953874169081994</v>
       </c>
       <c r="L16">
-        <v>1.026760028480708</v>
+        <v>0.9949243271663062</v>
       </c>
       <c r="M16">
-        <v>1.035120636663893</v>
+        <v>0.9897504820248239</v>
       </c>
       <c r="N16">
-        <v>1.013585720380592</v>
+        <v>1.002780471144324</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022923155514632</v>
+        <v>0.9707668301908208</v>
       </c>
       <c r="D17">
-        <v>1.024779469416634</v>
+        <v>0.982669222444609</v>
       </c>
       <c r="E17">
-        <v>1.023652364331996</v>
+        <v>0.9821458916877309</v>
       </c>
       <c r="F17">
-        <v>1.032176654872238</v>
+        <v>0.9775817765287815</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030972680311572</v>
+        <v>1.03498148473901</v>
       </c>
       <c r="J17">
-        <v>1.029193891045251</v>
+        <v>0.9993966741941047</v>
       </c>
       <c r="K17">
-        <v>1.028184885609555</v>
+        <v>0.9969881033556072</v>
       </c>
       <c r="L17">
-        <v>1.027061808826315</v>
+        <v>0.9964743815566383</v>
       </c>
       <c r="M17">
-        <v>1.035555873995378</v>
+        <v>0.9919946377540216</v>
       </c>
       <c r="N17">
-        <v>1.013687803773039</v>
+        <v>1.003324268535463</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023180591708506</v>
+        <v>0.9721515814412932</v>
       </c>
       <c r="D18">
-        <v>1.025003462956444</v>
+        <v>0.9838085003829947</v>
       </c>
       <c r="E18">
-        <v>1.02387158983569</v>
+        <v>0.983255659040541</v>
       </c>
       <c r="F18">
-        <v>1.032473550969264</v>
+        <v>0.9791009869958508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031018816419241</v>
+        <v>1.035327887058309</v>
       </c>
       <c r="J18">
-        <v>1.029369419935573</v>
+        <v>1.000309581794006</v>
       </c>
       <c r="K18">
-        <v>1.02836566070945</v>
+        <v>0.9979126984183277</v>
       </c>
       <c r="L18">
-        <v>1.027237777447056</v>
+        <v>0.9973698197208035</v>
       </c>
       <c r="M18">
-        <v>1.035809658182144</v>
+        <v>0.993290486731638</v>
       </c>
       <c r="N18">
-        <v>1.013747301940882</v>
+        <v>1.003638250014385</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023268365725103</v>
+        <v>0.9726214847986768</v>
       </c>
       <c r="D19">
-        <v>1.025079840439235</v>
+        <v>0.9841952575990653</v>
       </c>
       <c r="E19">
-        <v>1.023946343083977</v>
+        <v>0.983632421901959</v>
       </c>
       <c r="F19">
-        <v>1.032574781559872</v>
+        <v>0.9796165368493283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031034515681122</v>
+        <v>1.035445205428441</v>
       </c>
       <c r="J19">
-        <v>1.029429255818907</v>
+        <v>1.000619326011731</v>
       </c>
       <c r="K19">
-        <v>1.028427289643888</v>
+        <v>0.9982264522268579</v>
       </c>
       <c r="L19">
-        <v>1.027297768934859</v>
+        <v>0.9976736943864054</v>
       </c>
       <c r="M19">
-        <v>1.035896178124788</v>
+        <v>0.9937301528757704</v>
       </c>
       <c r="N19">
-        <v>1.013767581592895</v>
+        <v>1.003744774914963</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022875799642309</v>
+        <v>0.9705110320822568</v>
       </c>
       <c r="D20">
-        <v>1.024738268183423</v>
+        <v>0.9824588430748717</v>
       </c>
       <c r="E20">
-        <v>1.023612040876173</v>
+        <v>0.9819409731560002</v>
       </c>
       <c r="F20">
-        <v>1.032122041479416</v>
+        <v>0.9773011491781507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030964178750922</v>
+        <v>1.034917386223595</v>
       </c>
       <c r="J20">
-        <v>1.029161596732069</v>
+        <v>0.9992280173118812</v>
       </c>
       <c r="K20">
-        <v>1.028151628303457</v>
+        <v>0.9968173083222807</v>
       </c>
       <c r="L20">
-        <v>1.02702943631928</v>
+        <v>0.9963089797023973</v>
       </c>
       <c r="M20">
-        <v>1.035509185685911</v>
+        <v>0.9917552291836215</v>
       </c>
       <c r="N20">
-        <v>1.013676855883083</v>
+        <v>1.003266258072596</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021599170246944</v>
+        <v>0.9634866095729738</v>
       </c>
       <c r="D21">
-        <v>1.023627882445099</v>
+        <v>0.9766906262212021</v>
       </c>
       <c r="E21">
-        <v>1.022525398146897</v>
+        <v>0.9763238532676646</v>
       </c>
       <c r="F21">
-        <v>1.03064989904204</v>
+        <v>0.969595772638044</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030733291110909</v>
+        <v>1.033144585549381</v>
       </c>
       <c r="J21">
-        <v>1.028290372670849</v>
+        <v>0.9945944417913583</v>
       </c>
       <c r="K21">
-        <v>1.027254681501375</v>
+        <v>0.992127479869484</v>
       </c>
       <c r="L21">
-        <v>1.026156415932162</v>
+        <v>0.9917681027806201</v>
       </c>
       <c r="M21">
-        <v>1.034250062574952</v>
+        <v>0.9851770017889947</v>
       </c>
       <c r="N21">
-        <v>1.013381364388345</v>
+        <v>1.00167215991228</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02079621841177</v>
+        <v>0.9589369354220418</v>
       </c>
       <c r="D22">
-        <v>1.022929810389239</v>
+        <v>0.972963820759113</v>
       </c>
       <c r="E22">
-        <v>1.021842337150197</v>
+        <v>0.9726960593258238</v>
       </c>
       <c r="F22">
-        <v>1.029724106464692</v>
+        <v>0.9646056968445944</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03058642353372</v>
+        <v>1.031984331191347</v>
       </c>
       <c r="J22">
-        <v>1.027741799000117</v>
+        <v>0.9915915514632894</v>
       </c>
       <c r="K22">
-        <v>1.026690160145991</v>
+        <v>0.9890905936543508</v>
       </c>
       <c r="L22">
-        <v>1.025607015134913</v>
+        <v>0.9888285365505647</v>
       </c>
       <c r="M22">
-        <v>1.033457644442417</v>
+        <v>0.980912513245297</v>
       </c>
       <c r="N22">
-        <v>1.013195167221052</v>
+        <v>1.00063877542065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02122190590094</v>
+        <v>0.9613619734388484</v>
       </c>
       <c r="D23">
-        <v>1.023299865081485</v>
+        <v>0.9749493551633692</v>
       </c>
       <c r="E23">
-        <v>1.022204426301726</v>
+        <v>0.9746287087769983</v>
       </c>
       <c r="F23">
-        <v>1.030214906303414</v>
+        <v>0.9672654304325553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030664441970395</v>
+        <v>1.032603869654065</v>
       </c>
       <c r="J23">
-        <v>1.02803268445577</v>
+        <v>0.9931922727704459</v>
       </c>
       <c r="K23">
-        <v>1.026989478399083</v>
+        <v>0.9907092035559127</v>
       </c>
       <c r="L23">
-        <v>1.025898310362415</v>
+        <v>0.9903951931033594</v>
       </c>
       <c r="M23">
-        <v>1.033877792827202</v>
+        <v>0.9831859038483652</v>
       </c>
       <c r="N23">
-        <v>1.01329391278801</v>
+        <v>1.001189655223424</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022897197815481</v>
+        <v>0.9706266581218127</v>
       </c>
       <c r="D24">
-        <v>1.024756885220512</v>
+        <v>0.9825539360590173</v>
       </c>
       <c r="E24">
-        <v>1.023630261255307</v>
+        <v>0.9820335973626995</v>
       </c>
       <c r="F24">
-        <v>1.03214671898182</v>
+        <v>0.9774279982224755</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030968020822423</v>
+        <v>1.034946364261297</v>
       </c>
       <c r="J24">
-        <v>1.029176189414297</v>
+        <v>0.9993042544699601</v>
       </c>
       <c r="K24">
-        <v>1.028166656043666</v>
+        <v>0.9968945111693103</v>
       </c>
       <c r="L24">
-        <v>1.027044064230649</v>
+        <v>0.9963837444452115</v>
       </c>
       <c r="M24">
-        <v>1.035530282377232</v>
+        <v>0.9918634480764426</v>
       </c>
       <c r="N24">
-        <v>1.013681802903338</v>
+        <v>1.00329248038885</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024840101450961</v>
+        <v>0.9808489720072359</v>
       </c>
       <c r="D25">
-        <v>1.026448014050105</v>
+        <v>0.990979552914122</v>
       </c>
       <c r="E25">
-        <v>1.025285558566381</v>
+        <v>0.9902433895261192</v>
       </c>
       <c r="F25">
-        <v>1.03438770610058</v>
+        <v>0.9886451177705666</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031312915164177</v>
+        <v>1.037479115918197</v>
       </c>
       <c r="J25">
-        <v>1.030499706703261</v>
+        <v>1.006038491820112</v>
       </c>
       <c r="K25">
-        <v>1.029530226958876</v>
+        <v>1.003719532525526</v>
       </c>
       <c r="L25">
-        <v>1.028371502575133</v>
+        <v>1.002995076338155</v>
       </c>
       <c r="M25">
-        <v>1.03744468044723</v>
+        <v>1.001422298826247</v>
       </c>
       <c r="N25">
-        <v>1.014130149553705</v>
+        <v>1.005607808084396</v>
       </c>
     </row>
   </sheetData>
